--- a/data/trans_dic/AIRE_1_R-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/AIRE_1_R-Provincia-trans_dic.xlsx
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>74,22; 86,75</t>
+          <t>74,13; 87,33</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>80,22; 88,81</t>
+          <t>79,84; 88,88</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>79,32; 87,31</t>
+          <t>78,66; 87,1</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>64,65; 80,59</t>
+          <t>65,2; 80,06</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>72,23; 82,78</t>
+          <t>72,56; 82,57</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>71,36; 80,03</t>
+          <t>70,88; 79,91</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>66,5; 79,88</t>
+          <t>66,63; 79,92</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>67,8; 79,63</t>
+          <t>68,58; 80,25</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>69,07; 78,56</t>
+          <t>69,26; 78,49</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>59,8; 76,75</t>
+          <t>60,28; 77,59</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>59,85; 77,28</t>
+          <t>58,54; 76,73</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>61,89; 74,91</t>
+          <t>62,8; 75,38</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>36,05; 52,51</t>
+          <t>35,92; 52,46</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>46,19; 58,27</t>
+          <t>45,74; 57,74</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>43,87; 53,39</t>
+          <t>43,36; 53,29</t>
         </is>
       </c>
     </row>
@@ -829,17 +829,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>69,96; 83,12</t>
+          <t>70,09; 83,53</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>73,71; 85,69</t>
+          <t>74,16; 85,5</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>74,21; 82,79</t>
+          <t>74,28; 82,97</t>
         </is>
       </c>
     </row>
@@ -879,17 +879,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>64,31; 76,23</t>
+          <t>63,9; 75,93</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>66,38; 87,76</t>
+          <t>66,51; 87,76</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>67,79; 84,7</t>
+          <t>68,08; 83,14</t>
         </is>
       </c>
     </row>
@@ -929,17 +929,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>78,88; 86,4</t>
+          <t>79,4; 86,66</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>87,55; 92,72</t>
+          <t>87,22; 92,49</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>84,25; 88,87</t>
+          <t>84,07; 88,73</t>
         </is>
       </c>
     </row>
@@ -979,17 +979,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>71,24; 76,08</t>
+          <t>71,31; 76,04</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>75,51; 81,62</t>
+          <t>75,55; 81,9</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>74,23; 78,22</t>
+          <t>74,25; 78,55</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/AIRE_1_R-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/AIRE_1_R-Provincia-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>74,13; 87,33</t>
+          <t>74,22; 86,75</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>79,84; 88,88</t>
+          <t>80,22; 88,81</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>78,66; 87,1</t>
+          <t>79,32; 87,31</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>65,2; 80,06</t>
+          <t>64,65; 80,59</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>72,56; 82,57</t>
+          <t>72,23; 82,78</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>70,88; 79,91</t>
+          <t>71,36; 80,03</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>66,63; 79,92</t>
+          <t>66,5; 79,88</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>68,58; 80,25</t>
+          <t>67,8; 79,63</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>69,26; 78,49</t>
+          <t>69,07; 78,56</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>60,28; 77,59</t>
+          <t>59,8; 76,75</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>58,54; 76,73</t>
+          <t>59,85; 77,28</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>62,8; 75,38</t>
+          <t>61,89; 74,91</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>35,92; 52,46</t>
+          <t>36,05; 52,51</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>45,74; 57,74</t>
+          <t>46,19; 58,27</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>43,36; 53,29</t>
+          <t>43,87; 53,39</t>
         </is>
       </c>
     </row>
@@ -829,17 +829,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>70,09; 83,53</t>
+          <t>69,96; 83,12</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>74,16; 85,5</t>
+          <t>73,71; 85,69</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>74,28; 82,97</t>
+          <t>74,21; 82,79</t>
         </is>
       </c>
     </row>
@@ -879,17 +879,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>63,9; 75,93</t>
+          <t>64,31; 76,23</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>66,51; 87,76</t>
+          <t>66,38; 87,76</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>68,08; 83,14</t>
+          <t>67,79; 84,7</t>
         </is>
       </c>
     </row>
@@ -929,17 +929,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>79,4; 86,66</t>
+          <t>78,88; 86,4</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>87,22; 92,49</t>
+          <t>87,55; 92,72</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>84,07; 88,73</t>
+          <t>84,25; 88,87</t>
         </is>
       </c>
     </row>
@@ -979,17 +979,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>71,31; 76,04</t>
+          <t>71,24; 76,08</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>75,55; 81,9</t>
+          <t>75,51; 81,62</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>74,25; 78,55</t>
+          <t>74,23; 78,22</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/AIRE_1_R-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/AIRE_1_R-Provincia-trans_dic.xlsx
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>81,73%</t>
+          <t>80,5%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>85,11%</t>
+          <t>84,83%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>83,53%</t>
+          <t>82,71%</t>
         </is>
       </c>
     </row>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>74,22; 86,75</t>
+          <t>70,27; 86,27</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>80,22; 88,81</t>
+          <t>79,39; 88,58</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>79,32; 87,31</t>
+          <t>77,44; 86,77</t>
         </is>
       </c>
     </row>
@@ -606,17 +606,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>73,46%</t>
+          <t>72,65%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>78,13%</t>
+          <t>78,21%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>75,71%</t>
+          <t>75,22%</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>64,65; 80,59</t>
+          <t>63,44; 80,24</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>72,23; 82,78</t>
+          <t>72,46; 82,9</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>71,36; 80,03</t>
+          <t>70,31; 79,79</t>
         </is>
       </c>
     </row>
@@ -656,17 +656,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>73,92%</t>
+          <t>73,44%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>74,49%</t>
+          <t>74,4%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>74,21%</t>
+          <t>73,91%</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>66,5; 79,88</t>
+          <t>66,01; 79,64</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>67,8; 79,63</t>
+          <t>67,54; 79,49</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>69,07; 78,56</t>
+          <t>68,7; 78,3</t>
         </is>
       </c>
     </row>
@@ -706,17 +706,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>69,2%</t>
+          <t>69,34%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>70,57%</t>
+          <t>63,24%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>69,96%</t>
+          <t>65,85%</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>59,8; 76,75</t>
+          <t>59,54; 77,21</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>59,85; 77,28</t>
+          <t>39,34; 76,15</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>61,89; 74,91</t>
+          <t>47,06; 73,09</t>
         </is>
       </c>
     </row>
@@ -756,17 +756,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>43,89%</t>
+          <t>43,73%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>51,94%</t>
+          <t>51,59%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>48,39%</t>
+          <t>48,1%</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>36,05; 52,51</t>
+          <t>35,76; 52,26</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>46,19; 58,27</t>
+          <t>46,06; 57,79</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>43,87; 53,39</t>
+          <t>43,53; 52,88</t>
         </is>
       </c>
     </row>
@@ -806,17 +806,17 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>77,49%</t>
+          <t>77,44%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>80,28%</t>
+          <t>80,23%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>78,91%</t>
+          <t>78,83%</t>
         </is>
       </c>
     </row>
@@ -829,17 +829,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>69,96; 83,12</t>
+          <t>69,74; 83,1</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>73,71; 85,69</t>
+          <t>73,72; 85,65</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>74,21; 82,79</t>
+          <t>74,14; 82,86</t>
         </is>
       </c>
     </row>
@@ -856,17 +856,17 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>70,4%</t>
+          <t>71,01%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>76,44%</t>
+          <t>81,27%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>74,03%</t>
+          <t>77,56%</t>
         </is>
       </c>
     </row>
@@ -879,17 +879,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>64,31; 76,23</t>
+          <t>64,67; 76,92</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>66,38; 87,76</t>
+          <t>66,43; 92,2</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>67,79; 84,7</t>
+          <t>68,13; 89,58</t>
         </is>
       </c>
     </row>
@@ -906,17 +906,17 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>82,99%</t>
+          <t>82,86%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>90,24%</t>
+          <t>90,06%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>86,61%</t>
+          <t>86,41%</t>
         </is>
       </c>
     </row>
@@ -929,17 +929,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>78,88; 86,4</t>
+          <t>78,83; 86,34</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>87,55; 92,72</t>
+          <t>87,35; 92,57</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>84,25; 88,87</t>
+          <t>84,0; 88,66</t>
         </is>
       </c>
     </row>
@@ -956,7 +956,7 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>73,86%</t>
+          <t>73,59%</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
@@ -966,7 +966,7 @@
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>75,98%</t>
+          <t>75,87%</t>
         </is>
       </c>
     </row>
@@ -979,17 +979,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>71,24; 76,08</t>
+          <t>70,8; 75,9</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>75,51; 81,62</t>
+          <t>73,71; 84,17</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>74,23; 78,22</t>
+          <t>73,35; 80,05</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/AIRE_1_R-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/AIRE_1_R-Provincia-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -546,7 +547,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -579,24 +580,24 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>70,27; 86,27</t>
+          <t>69,73; 87,16</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>79,39; 88,58</t>
+          <t>79,05; 88,93</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>77,44; 86,77</t>
+          <t>77,33; 86,95</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -629,24 +630,24 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>63,44; 80,24</t>
+          <t>64,26; 79,56</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>72,46; 82,9</t>
+          <t>72,41; 82,87</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>70,31; 79,79</t>
+          <t>70,16; 79,66</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -679,17 +680,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>66,01; 79,64</t>
+          <t>66,02; 79,66</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>67,54; 79,49</t>
+          <t>68,08; 80,17</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>68,7; 78,3</t>
+          <t>69,22; 78,18</t>
         </is>
       </c>
     </row>
@@ -729,17 +730,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>59,54; 77,21</t>
+          <t>59,62; 77,24</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>39,34; 76,15</t>
+          <t>34,24; 75,61</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>47,06; 73,09</t>
+          <t>48,56; 73,52</t>
         </is>
       </c>
     </row>
@@ -779,24 +780,24 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>35,76; 52,26</t>
+          <t>36,09; 53,42</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>46,06; 57,79</t>
+          <t>45,7; 58,01</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>43,53; 52,88</t>
+          <t>43,66; 53,3</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -829,24 +830,24 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>69,74; 83,1</t>
+          <t>70,59; 83,64</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>73,72; 85,65</t>
+          <t>73,33; 84,83</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>74,14; 82,86</t>
+          <t>73,99; 82,89</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -879,17 +880,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>64,67; 76,92</t>
+          <t>64,09; 76,55</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>66,43; 92,2</t>
+          <t>66,4; 93,21</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>68,13; 89,58</t>
+          <t>67,8; 88,92</t>
         </is>
       </c>
     </row>
@@ -929,17 +930,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>78,83; 86,34</t>
+          <t>78,43; 86,3</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>87,35; 92,57</t>
+          <t>87,37; 92,47</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>84,0; 88,66</t>
+          <t>83,85; 88,53</t>
         </is>
       </c>
     </row>
@@ -979,17 +980,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>70,8; 75,9</t>
+          <t>70,89; 76,0</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>73,71; 84,17</t>
+          <t>73,6; 84,43</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>73,35; 80,05</t>
+          <t>73,35; 80,19</t>
         </is>
       </c>
     </row>
@@ -1015,4 +1016,758 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que no está dispuesta a pagar para reducir la contaminación del aire (impuesto durante 5 años)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Almería</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>149</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>259</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>408</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>126529</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>138536</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>265065</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>109602; 136999</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>129095; 145234</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>247837; 278663</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Cádiz</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>147</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>269</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>416</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>197856</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>183008</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>380864</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>175003; 216669</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>169442; 193913</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>355226; 403368</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Córdoba</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>169</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>227</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>396</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>137186</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>134963</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>272150</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>123333; 148812</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>123504; 145442</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>254872; 287861</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Granada</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>119</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>238</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>357</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>118697</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>144923</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>263620</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>102051; 132226</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>78469; 173256</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>194413; 294341</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Huelva</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>152</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>222</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>44942</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>66354</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>111296</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>37094; 54903</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>58778; 74613</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>101025; 123329</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>Jaén</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>148</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>205</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>353</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>109355</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>112622</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>221978</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>99680; 118114</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>102946; 119091</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>208359; 233400</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Málaga</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>189</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>311</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>500</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>199410</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>403939</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>603350</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>179994; 214973</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>330040; 463327</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>527399; 691676</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Sevilla</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>324</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>446</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>770</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>283970</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>300655</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>584626</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>268789; 295765</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>291700; 308710</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>567291; 598969</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>1315</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>2107</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>3422</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>1217946</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>1485002</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>2702949</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>1173195; 1257849</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>1404113; 1610666</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>2613514; 2857112</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>